--- a/eg_data/NHANES/PF/Waist/Foods.xlsx
+++ b/eg_data/NHANES/PF/Waist/Foods.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\Waist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AFF330-4BD8-41E1-AE43-6206C5424807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9725D3-4991-49DC-854B-ABD86D25D48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23445" yWindow="-525" windowWidth="16110" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31305" yWindow="-2820" windowWidth="17040" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>DivNA</t>
   </si>
@@ -39,15 +50,6 @@
     <t>Div2</t>
   </si>
   <si>
-    <t>Foods</t>
-  </si>
-  <si>
-    <t>Protein foods</t>
-  </si>
-  <si>
-    <t>nuts/seeds/legumes</t>
-  </si>
-  <si>
     <t>KCAL</t>
   </si>
   <si>
@@ -57,35 +59,196 @@
     <t>PROT</t>
   </si>
   <si>
-    <t>PUFA</t>
-  </si>
-  <si>
-    <t>MUFA</t>
-  </si>
-  <si>
     <t>TFAT</t>
   </si>
   <si>
-    <t>plain means?</t>
-  </si>
-  <si>
     <t>kcal</t>
   </si>
   <si>
     <t>g</t>
   </si>
   <si>
-    <t>with no model building, emmeans?</t>
+    <t>Protein foods intake except legumes</t>
+  </si>
+  <si>
+    <t>oz.</t>
+  </si>
+  <si>
+    <t>legume intake</t>
+  </si>
+  <si>
+    <t>PF_TOTAL</t>
+  </si>
+  <si>
+    <t>PF_TOTAL_LEG</t>
+  </si>
+  <si>
+    <t>PF_LEG_perTOTAL</t>
+  </si>
+  <si>
+    <t>PF_LEGUME</t>
+  </si>
+  <si>
+    <t>Protein foods intake including legumes</t>
+  </si>
+  <si>
+    <t>Legumes in total PF intake</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>SFAT</t>
+  </si>
+  <si>
+    <t>MFAT</t>
+  </si>
+  <si>
+    <t>PFAT</t>
+  </si>
+  <si>
+    <t>Total saturated fat</t>
+  </si>
+  <si>
+    <t>Total monounsaturated fat</t>
+  </si>
+  <si>
+    <t>Total polyunsaturated fat</t>
+  </si>
+  <si>
+    <t>Total fat</t>
+  </si>
+  <si>
+    <t>Total energy</t>
+  </si>
+  <si>
+    <t>Carbohydrate</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>FIBE</t>
+  </si>
+  <si>
+    <t>Dietary fiber</t>
+  </si>
+  <si>
+    <t>Total unsaturated fat</t>
+  </si>
+  <si>
+    <t>NoOfItems</t>
+  </si>
+  <si>
+    <t>Total number of items reported</t>
+  </si>
+  <si>
+    <t>ct.</t>
+  </si>
+  <si>
+    <t>V_TOTAL</t>
+  </si>
+  <si>
+    <t>Total folate</t>
+  </si>
+  <si>
+    <t>mcg</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>FOLA</t>
+  </si>
+  <si>
+    <t>ALCO</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>no. of drinks</t>
+  </si>
+  <si>
+    <t>tsp.</t>
+  </si>
+  <si>
+    <t>Added sugars</t>
+  </si>
+  <si>
+    <t>ADD_SUGARS</t>
+  </si>
+  <si>
+    <t>Total vegetables excluding legumes</t>
+  </si>
+  <si>
+    <t>Amount of 4xxxxxxx</t>
+  </si>
+  <si>
+    <t>Nuts/seeds/legumes consumption</t>
+  </si>
+  <si>
+    <t>Just curious…</t>
+  </si>
+  <si>
+    <t>g/day</t>
+  </si>
+  <si>
+    <t>p-value anova</t>
+  </si>
+  <si>
+    <t>total_MPFAT</t>
+  </si>
+  <si>
+    <t>&lt;0.05?</t>
+  </si>
+  <si>
+    <t>*; tested with Div0,1,2</t>
+  </si>
+  <si>
+    <t>F_TOTAL</t>
+  </si>
+  <si>
+    <t>Total fruit</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>NS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0E+00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -118,14 +281,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -408,101 +626,858 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I10"/>
+  <dimension ref="A2:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B3" sqref="B3:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5.586201</v>
+      </c>
+      <c r="E4" s="6">
+        <v>6.2547899999999998</v>
+      </c>
+      <c r="F4" s="6">
+        <v>6.9004130000000004</v>
+      </c>
+      <c r="G4" s="6">
+        <v>7.3165329999999997</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="17">
+        <v>3.1458062038775198E-24</v>
+      </c>
+      <c r="K4" t="str">
+        <f>IF(J4&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.18246109999999999</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.77575479999999997</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.2388889999999999</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1.3642519</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="17">
+        <v>6.7486163608715802E-130</v>
+      </c>
+      <c r="K5" t="str">
+        <f>IF(J5&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5.768662</v>
+      </c>
+      <c r="E6" s="8">
+        <v>7.030545</v>
+      </c>
+      <c r="F6" s="8">
+        <v>8.1393020000000007</v>
+      </c>
+      <c r="G6" s="8">
+        <v>8.6807850000000002</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="17">
+        <v>5.3316054922211704E-69</v>
+      </c>
+      <c r="K6" t="str">
+        <f>IF(J6&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <v>11.687989999999999</v>
+      </c>
+      <c r="F7" s="8">
+        <v>15.923859999999999</v>
+      </c>
+      <c r="G7" s="8">
+        <v>17.141079999999999</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1.5941665033088701E-118</v>
+      </c>
+      <c r="K7" t="str">
+        <f>IF(J7&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1.375826</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1.4971950000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.734542</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1.729419</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="17">
+        <v>4.7156403772793197E-16</v>
+      </c>
+      <c r="K8" t="str">
+        <f>IF(J8&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.81400629999999996</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0377244999999999</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.2330208</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.4269510000000001</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="17">
+        <v>1.5127542910413099E-31</v>
+      </c>
+      <c r="K9" t="str">
+        <f>IF(J9&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>49.970959999999998</v>
+      </c>
+      <c r="F10" s="11">
+        <v>111.53216</v>
+      </c>
+      <c r="G10" s="11">
+        <v>128.31922</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="17">
+        <v>2.7951810000000001E-67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1946.9069999999999</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2020.37</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2117.652</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2192.2759999999998</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="17">
+        <v>9.6727865030169901E-11</v>
+      </c>
+      <c r="K11" t="str">
+        <f>IF(J11&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11">
+        <v>233.04769999999999</v>
+      </c>
+      <c r="E12" s="11">
+        <v>240.75640000000001</v>
+      </c>
+      <c r="F12" s="11">
+        <v>253.83529999999999</v>
+      </c>
+      <c r="G12" s="11">
+        <v>259.11529999999999</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="17">
+        <v>6.3919000967433206E-8</v>
+      </c>
+      <c r="K12" t="str">
+        <f>IF(J12&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="11">
+        <v>75.041420000000002</v>
+      </c>
+      <c r="E13" s="11">
+        <v>81.354889999999997</v>
+      </c>
+      <c r="F13" s="11">
+        <v>85.115430000000003</v>
+      </c>
+      <c r="G13" s="11">
+        <v>88.600239999999999</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="17">
+        <v>2.16365572200686E-19</v>
+      </c>
+      <c r="K13" t="str">
+        <f>IF(J13&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="11">
+        <v>13.7841</v>
+      </c>
+      <c r="E14" s="11">
+        <v>17.986039999999999</v>
+      </c>
+      <c r="F14" s="11">
+        <v>22.70065</v>
+      </c>
+      <c r="G14" s="11">
+        <v>25.856490000000001</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="17">
+        <v>6.8794175689196497E-203</v>
+      </c>
+      <c r="K14" t="str">
+        <f>IF(J14&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
+      <c r="D15" s="11">
+        <v>75.344110000000001</v>
+      </c>
+      <c r="E15" s="11">
+        <v>79.554519999999997</v>
+      </c>
+      <c r="F15" s="11">
+        <v>82.928619999999995</v>
+      </c>
+      <c r="G15" s="11">
+        <v>89.204710000000006</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="17">
+        <v>2.0909958837217101E-13</v>
+      </c>
+      <c r="K15" t="str">
+        <f>IF(J15&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="11">
+        <v>25.348020000000002</v>
+      </c>
+      <c r="E16" s="11">
+        <v>25.63607</v>
+      </c>
+      <c r="F16" s="11">
+        <v>24.722639999999998</v>
+      </c>
+      <c r="G16" s="11">
+        <v>26.113399999999999</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0.42870127887221599</v>
+      </c>
+      <c r="K16" t="str">
+        <f>IF(J16&lt;0.05,"*","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="11">
+        <v>25.995249999999999</v>
+      </c>
+      <c r="E17" s="11">
+        <v>28.099329999999998</v>
+      </c>
+      <c r="F17" s="11">
+        <v>30.051410000000001</v>
+      </c>
+      <c r="G17" s="11">
+        <v>33.220129999999997</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="17">
+        <v>2.4747920754737799E-26</v>
+      </c>
+      <c r="K17" t="str">
+        <f>IF(J17&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="11">
+        <v>16.926939999999998</v>
+      </c>
+      <c r="E18" s="11">
+        <v>18.491340000000001</v>
+      </c>
+      <c r="F18" s="11">
+        <v>20.891259999999999</v>
+      </c>
+      <c r="G18" s="11">
+        <v>22.120750000000001</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="17">
+        <v>2.6302258102532601E-31</v>
+      </c>
+      <c r="K18" t="str">
+        <f>IF(J18&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="8">
+        <v>8.0387920000000008</v>
+      </c>
+      <c r="E19" s="8">
+        <v>6.099278</v>
+      </c>
+      <c r="F19" s="8">
+        <v>7.1299739999999998</v>
+      </c>
+      <c r="G19" s="8">
+        <v>6.1269720000000003</v>
+      </c>
+      <c r="H19" s="19">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J19" s="17">
+        <v>2.7928509533607801E-2</v>
+      </c>
+      <c r="K19" t="str">
+        <f>IF(J19&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="8">
+        <v>16.570930000000001</v>
+      </c>
+      <c r="E20" s="8">
+        <v>14.35272</v>
+      </c>
+      <c r="F20" s="8">
+        <v>13.13245</v>
+      </c>
+      <c r="G20" s="8">
+        <v>12.22641</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="18">
+        <v>6.4678187104910601E-15</v>
+      </c>
+      <c r="K20" t="str">
+        <f>IF(J20&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="16">
+        <v>13.84369</v>
+      </c>
+      <c r="E21" s="16">
+        <v>15.79936</v>
+      </c>
+      <c r="F21" s="16">
+        <v>17.667960000000001</v>
+      </c>
+      <c r="G21" s="16">
+        <v>18.998729999999998</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="17">
+        <v>1.7065357499497701E-106</v>
+      </c>
+      <c r="K21" t="str">
+        <f>IF(J21&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="11">
+        <v>343.64210000000003</v>
+      </c>
+      <c r="E23" s="11">
+        <v>395.89850000000001</v>
+      </c>
+      <c r="F23" s="11">
+        <v>447.50779999999997</v>
+      </c>
+      <c r="G23" s="11">
+        <v>486.43770000000001</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="J23" s="14">
+        <v>5.1898686318552602E-51</v>
+      </c>
+      <c r="K23" t="str">
+        <f>IF(J23&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+      <c r="L23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="11">
+        <v>42.922199999999997</v>
+      </c>
+      <c r="E24" s="11">
+        <v>46.590670000000003</v>
+      </c>
+      <c r="F24" s="11">
+        <v>50.94267</v>
+      </c>
+      <c r="G24" s="11">
+        <v>55.340879999999999</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="J24" s="14">
+        <v>3.1920852987845799E-31</v>
+      </c>
+      <c r="K24" t="str">
+        <f>IF(J24&lt;0.05,"*","")</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{C006393F-07BD-42B6-9DC1-4292A0E9CF0F}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!D4:G4</xm:f>
+              <xm:sqref>I4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D5:G5</xm:f>
+              <xm:sqref>I5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D6:G6</xm:f>
+              <xm:sqref>I6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D7:G7</xm:f>
+              <xm:sqref>I7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D10:G10</xm:f>
+              <xm:sqref>I10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D11:G11</xm:f>
+              <xm:sqref>I11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D12:G12</xm:f>
+              <xm:sqref>I12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D13:G13</xm:f>
+              <xm:sqref>I13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D14:G14</xm:f>
+              <xm:sqref>I14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D15:G15</xm:f>
+              <xm:sqref>I15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D16:G16</xm:f>
+              <xm:sqref>I16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D17:G17</xm:f>
+              <xm:sqref>I17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D18:G18</xm:f>
+              <xm:sqref>I18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D24:G24</xm:f>
+              <xm:sqref>I24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D21:G21</xm:f>
+              <xm:sqref>I21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D8:G8</xm:f>
+              <xm:sqref>I8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D9:G9</xm:f>
+              <xm:sqref>I9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D23:G23</xm:f>
+              <xm:sqref>I23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D19:G19</xm:f>
+              <xm:sqref>I19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D20:G20</xm:f>
+              <xm:sqref>I20</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/eg_data/NHANES/PF/Waist/Foods.xlsx
+++ b/eg_data/NHANES/PF/Waist/Foods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\Waist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9725D3-4991-49DC-854B-ABD86D25D48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC18590-090D-4AB5-8853-10329E3F2858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31305" yWindow="-2820" windowWidth="17040" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25275" yWindow="-2340" windowWidth="19980" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,8 +236,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -319,31 +319,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -629,20 +623,20 @@
   <dimension ref="A2:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
     <col min="4" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -668,10 +662,10 @@
       <c r="H3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -680,7 +674,7 @@
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="6">
@@ -698,11 +692,11 @@
       <c r="H4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="12">
         <v>3.1458062038775198E-24</v>
       </c>
       <c r="K4" t="str">
-        <f>IF(J4&lt;0.05,"*","")</f>
+        <f t="shared" ref="K4:K9" si="0">IF(J4&lt;0.05,"*","")</f>
         <v>*</v>
       </c>
     </row>
@@ -710,32 +704,32 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="4">
         <v>0.18246109999999999</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <v>0.77575479999999997</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <v>1.2388889999999999</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <v>1.3642519</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="17">
+      <c r="H5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="12">
         <v>6.7486163608715802E-130</v>
       </c>
       <c r="K5" t="str">
-        <f>IF(J5&lt;0.05,"*","")</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
     </row>
@@ -743,32 +737,32 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="4">
         <v>5.768662</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <v>7.030545</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <v>8.1393020000000007</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="4">
         <v>8.6807850000000002</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="17">
+      <c r="H6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="12">
         <v>5.3316054922211704E-69</v>
       </c>
       <c r="K6" t="str">
-        <f>IF(J6&lt;0.05,"*","")</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
     </row>
@@ -776,32 +770,32 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <v>11.687989999999999</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <v>15.923859999999999</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="4">
         <v>17.141079999999999</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="17">
+      <c r="H7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="12">
         <v>1.5941665033088701E-118</v>
       </c>
       <c r="K7" t="str">
-        <f>IF(J7&lt;0.05,"*","")</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
     </row>
@@ -809,32 +803,32 @@
       <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="4">
         <v>1.375826</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="4">
         <v>1.4971950000000001</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <v>1.734542</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <v>1.729419</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="17">
+      <c r="H8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="12">
         <v>4.7156403772793197E-16</v>
       </c>
       <c r="K8" t="str">
-        <f>IF(J8&lt;0.05,"*","")</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
     </row>
@@ -842,10 +836,10 @@
       <c r="A9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="4">
@@ -860,15 +854,14 @@
       <c r="G9" s="4">
         <v>1.4269510000000001</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="17">
+      <c r="H9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="12">
         <v>1.5127542910413099E-31</v>
       </c>
       <c r="K9" t="str">
-        <f>IF(J9&lt;0.05,"*","")</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
     </row>
@@ -876,28 +869,28 @@
       <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <v>49.970959999999998</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>111.53216</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="8">
         <v>128.31922</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="H10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="12">
         <v>2.7951810000000001E-67</v>
       </c>
       <c r="K10" t="s">
@@ -908,32 +901,32 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>1946.9069999999999</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <v>2020.37</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>2117.652</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="8">
         <v>2192.2759999999998</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="17">
+      <c r="H11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="12">
         <v>9.6727865030169901E-11</v>
       </c>
       <c r="K11" t="str">
-        <f>IF(J11&lt;0.05,"*","")</f>
+        <f t="shared" ref="K11:K21" si="1">IF(J11&lt;0.05,"*","")</f>
         <v>*</v>
       </c>
     </row>
@@ -941,32 +934,32 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>233.04769999999999</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>240.75640000000001</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>253.83529999999999</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="8">
         <v>259.11529999999999</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="17">
+      <c r="H12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="12">
         <v>6.3919000967433206E-8</v>
       </c>
       <c r="K12" t="str">
-        <f>IF(J12&lt;0.05,"*","")</f>
+        <f t="shared" si="1"/>
         <v>*</v>
       </c>
     </row>
@@ -974,32 +967,32 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>75.041420000000002</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="8">
         <v>81.354889999999997</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <v>85.115430000000003</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="8">
         <v>88.600239999999999</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="17">
+      <c r="H13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="12">
         <v>2.16365572200686E-19</v>
       </c>
       <c r="K13" t="str">
-        <f>IF(J13&lt;0.05,"*","")</f>
+        <f t="shared" si="1"/>
         <v>*</v>
       </c>
     </row>
@@ -1007,32 +1000,32 @@
       <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>13.7841</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>17.986039999999999</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="8">
         <v>22.70065</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="8">
         <v>25.856490000000001</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="17">
+      <c r="H14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="12">
         <v>6.8794175689196497E-203</v>
       </c>
       <c r="K14" t="str">
-        <f>IF(J14&lt;0.05,"*","")</f>
+        <f t="shared" si="1"/>
         <v>*</v>
       </c>
     </row>
@@ -1040,32 +1033,32 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>75.344110000000001</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="8">
         <v>79.554519999999997</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8">
         <v>82.928619999999995</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="8">
         <v>89.204710000000006</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="17">
+      <c r="H15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="12">
         <v>2.0909958837217101E-13</v>
       </c>
       <c r="K15" t="str">
-        <f>IF(J15&lt;0.05,"*","")</f>
+        <f t="shared" si="1"/>
         <v>*</v>
       </c>
     </row>
@@ -1073,32 +1066,32 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>25.348020000000002</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="8">
         <v>25.63607</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="8">
         <v>24.722639999999998</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="8">
         <v>26.113399999999999</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="12">
         <v>0.42870127887221599</v>
       </c>
       <c r="K16" t="str">
-        <f>IF(J16&lt;0.05,"*","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1106,32 +1099,32 @@
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <v>25.995249999999999</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <v>28.099329999999998</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8">
         <v>30.051410000000001</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="8">
         <v>33.220129999999997</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="17">
+      <c r="H17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="12">
         <v>2.4747920754737799E-26</v>
       </c>
       <c r="K17" t="str">
-        <f>IF(J17&lt;0.05,"*","")</f>
+        <f t="shared" si="1"/>
         <v>*</v>
       </c>
     </row>
@@ -1139,32 +1132,32 @@
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="8">
         <v>16.926939999999998</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="8">
         <v>18.491340000000001</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="8">
         <v>20.891259999999999</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="8">
         <v>22.120750000000001</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="17">
+      <c r="H18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="12">
         <v>2.6302258102532601E-31</v>
       </c>
       <c r="K18" t="str">
-        <f>IF(J18&lt;0.05,"*","")</f>
+        <f t="shared" si="1"/>
         <v>*</v>
       </c>
     </row>
@@ -1172,32 +1165,32 @@
       <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="4">
         <v>8.0387920000000008</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="4">
         <v>6.099278</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="4">
         <v>7.1299739999999998</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="4">
         <v>6.1269720000000003</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="13">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="12">
         <v>2.7928509533607801E-2</v>
       </c>
       <c r="K19" t="str">
-        <f>IF(J19&lt;0.05,"*","")</f>
+        <f t="shared" si="1"/>
         <v>*</v>
       </c>
     </row>
@@ -1205,33 +1198,32 @@
       <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="4">
         <v>16.570930000000001</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="4">
         <v>14.35272</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="4">
         <v>13.13245</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="4">
         <v>12.22641</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="18">
+      <c r="H20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="12">
         <v>6.4678187104910601E-15</v>
       </c>
       <c r="K20" t="str">
-        <f>IF(J20&lt;0.05,"*","")</f>
+        <f t="shared" si="1"/>
         <v>*</v>
       </c>
     </row>
@@ -1239,32 +1231,32 @@
       <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="11">
         <v>13.84369</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="11">
         <v>15.79936</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="11">
         <v>17.667960000000001</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="11">
         <v>18.998729999999998</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="17">
+      <c r="H21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="12">
         <v>1.7065357499497701E-106</v>
       </c>
       <c r="K21" t="str">
-        <f>IF(J21&lt;0.05,"*","")</f>
+        <f t="shared" si="1"/>
         <v>*</v>
       </c>
     </row>
@@ -1279,26 +1271,26 @@
       <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <v>343.64210000000003</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="8">
         <v>395.89850000000001</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="8">
         <v>447.50779999999997</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="8">
         <v>486.43770000000001</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="J23" s="14">
+      <c r="H23" s="8"/>
+      <c r="J23" s="10">
         <v>5.1898686318552602E-51</v>
       </c>
       <c r="K23" t="str">
@@ -1313,26 +1305,26 @@
       <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="8">
         <v>42.922199999999997</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="8">
         <v>46.590670000000003</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="8">
         <v>50.94267</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="8">
         <v>55.340879999999999</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="J24" s="14">
+      <c r="H24" s="8"/>
+      <c r="J24" s="10">
         <v>3.1920852987845799E-31</v>
       </c>
       <c r="K24" t="str">
